--- a/概算費用及び制作予定.xlsx
+++ b/概算費用及び制作予定.xlsx
@@ -189,16 +189,16 @@
     <numFmt numFmtId="170" formatCode="0&quot;ページ&quot;"/>
     <numFmt numFmtId="171" formatCode="0&quot;円/種&quot;"/>
     <numFmt numFmtId="172" formatCode="m/d"/>
-    <numFmt numFmtId="173" formatCode="0&quot;円/枚&quot;"/>
-    <numFmt numFmtId="174" formatCode="#,##0&quot;円/枚&quot;"/>
+    <numFmt numFmtId="173" formatCode="#,##0&quot;円/枚&quot;"/>
+    <numFmt numFmtId="174" formatCode="0&quot;円/枚&quot;"/>
     <numFmt numFmtId="175" formatCode="0&quot;枚&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.0000&quot;日&quot;"/>
-    <numFmt numFmtId="177" formatCode="#,##0&quot;円/文字&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot;円/文字&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.0000&quot;日&quot;"/>
     <numFmt numFmtId="178" formatCode="0&quot;文字程度&quot;"/>
     <numFmt numFmtId="179" formatCode="#,##0&quot;円/個&quot;"/>
     <numFmt numFmtId="180" formatCode="0&quot;円&quot;"/>
-    <numFmt numFmtId="181" formatCode="0&quot;日&quot;"/>
-    <numFmt numFmtId="182" formatCode="3&quot;日&quot;"/>
+    <numFmt numFmtId="181" formatCode="3&quot;日&quot;"/>
+    <numFmt numFmtId="182" formatCode="0&quot;日&quot;"/>
     <numFmt numFmtId="183" formatCode="&quot;×&quot;0&quot;日&quot;"/>
     <numFmt numFmtId="184" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -447,10 +447,10 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -468,40 +468,37 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="172" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="172" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="173" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="173" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="174" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="174" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="175" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="176" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="176" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="177" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="177" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="177" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="176" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="178" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="176" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="179" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -519,10 +516,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="180" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="181" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="181" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="182" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -543,10 +540,10 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="183" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="183" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="181" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="182" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -637,8 +634,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="27.71"/>
-    <col customWidth="1" min="2" max="2" width="27.0"/>
-    <col customWidth="1" min="3" max="5" width="13.57"/>
+    <col customWidth="1" min="2" max="3" width="20.29"/>
+    <col customWidth="1" min="4" max="5" width="13.57"/>
     <col customWidth="1" min="6" max="6" width="27.0"/>
   </cols>
   <sheetData>
@@ -800,19 +797,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="12">
-        <v>150000.0</v>
-      </c>
-      <c r="C6" s="14">
+        <v>10000.0</v>
+      </c>
+      <c r="C6" s="15">
         <f>B6*1/B5</f>
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="16">
         <f>B5*E6</f>
-        <v>150000</v>
-      </c>
-      <c r="E6" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="15">
         <f>(B6*1/B5)*F6</f>
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="17">
         <v>1.0</v>
@@ -846,7 +843,7 @@
       <c r="B7" s="18">
         <v>15000.0</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <f>B7*1/B5</f>
         <v>0.3</v>
       </c>
@@ -854,7 +851,7 @@
         <f>B5*E7</f>
         <v>150000</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <f>(B7*1/B5)*F7</f>
         <v>3</v>
       </c>
@@ -890,7 +887,7 @@
       <c r="B8" s="12">
         <v>100000.0</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <f>B8*1/B5</f>
         <v>2</v>
       </c>
@@ -898,7 +895,7 @@
         <f>B5*E8</f>
         <v>100000</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <f>(B8*1/B5)*F8</f>
         <v>2</v>
       </c>
@@ -934,7 +931,7 @@
       <c r="B9" s="18">
         <v>10000.0</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <f>B9*1/B5</f>
         <v>0.2</v>
       </c>
@@ -942,7 +939,7 @@
         <f>B5*E9</f>
         <v>100000</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <f>(B9*1/B5)*F9</f>
         <v>2</v>
       </c>
@@ -973,8 +970,8 @@
     </row>
     <row r="10">
       <c r="A10" s="11"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1004,10 +1001,10 @@
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>2000.0</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="15">
         <f>B11*1/B5</f>
         <v>0.04</v>
       </c>
@@ -1015,11 +1012,11 @@
         <f>B5*E11</f>
         <v>20000</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <f>(B11*1/B5)*F11</f>
         <v>0.4</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <v>10.0</v>
       </c>
       <c r="G11" s="2"/>
@@ -1048,10 +1045,10 @@
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="27">
         <v>10.0</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="29">
         <f>B12*1/B5</f>
         <v>0.0002</v>
       </c>
@@ -1059,7 +1056,7 @@
         <f>B5*E12</f>
         <v>10000</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="15">
         <f>(B12*1/B5)*F12</f>
         <v>0.2</v>
       </c>
@@ -1092,20 +1089,20 @@
       <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="34">
-        <v>2000.0</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="33">
+        <v>5000.0</v>
+      </c>
+      <c r="C13" s="15">
         <f>B13*1/B5</f>
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="D13" s="16">
         <f>B5*E13</f>
-        <v>10000</v>
-      </c>
-      <c r="E13" s="14">
+        <v>25000</v>
+      </c>
+      <c r="E13" s="15">
         <f>(B13*1/B5)*F13</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="17">
         <v>5.0</v>
@@ -1139,7 +1136,7 @@
       <c r="B14" s="18">
         <v>10000.0</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <f>B14*1/B5</f>
         <v>0.2</v>
       </c>
@@ -1147,7 +1144,7 @@
         <f>B5*E14</f>
         <v>40000</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="15">
         <f>(B14*1/B5)*F14</f>
         <v>0.8</v>
       </c>
@@ -1177,13 +1174,13 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>0.5</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="38">
         <f>B5*E15*IF(F15="必要",B15)</f>
         <v>0</v>
@@ -1192,7 +1189,7 @@
         <f>SUM(E6:E14)*IF(F15="必要",B15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="40" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="2"/>
@@ -1218,15 +1215,15 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44">
         <f>SUM(E6:E15)</f>
-        <v>11.6</v>
+        <v>9.1</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="2"/>
@@ -1255,18 +1252,18 @@
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="45">
         <v>3.0</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="15">
         <f>E16*B17</f>
-        <v>34.8</v>
-      </c>
-      <c r="F17" s="48"/>
+        <v>27.3</v>
+      </c>
+      <c r="F17" s="47"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1291,7 +1288,7 @@
     </row>
     <row r="18">
       <c r="A18" s="9"/>
-      <c r="B18" s="49"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1320,13 +1317,13 @@
     </row>
     <row r="19">
       <c r="A19" s="9"/>
-      <c r="B19" s="49"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="50">
         <v>42767.0</v>
       </c>
       <c r="G19" s="2"/>
@@ -1357,77 +1354,77 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="52">
         <f>WORKDAY(F19,E17,$C$27:$C$43)</f>
-        <v>42816</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
+        <v>42804</v>
+      </c>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="56">
+      <c r="B22" s="55">
         <f>E16*B5</f>
-        <v>580000</v>
-      </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
+        <v>455000</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
     </row>
     <row r="23">
       <c r="A23" s="11"/>
-      <c r="B23" s="24"/>
+      <c r="B23" s="22"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
     </row>
     <row r="25">
       <c r="A25" s="11"/>
@@ -1439,221 +1436,221 @@
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="60" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="62">
         <v>42736.0</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="63">
         <f t="shared" ref="C27:C43" si="1">IF(WEEKDAY(B27,1)=1,B27+1,B27)</f>
         <v>42737</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="66">
+      <c r="B28" s="65">
         <v>42744.0</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="63">
         <f t="shared" si="1"/>
         <v>42744</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="66">
+      <c r="B29" s="65">
         <v>42777.0</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="63">
         <f t="shared" si="1"/>
         <v>42777</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="66">
+      <c r="B30" s="65">
         <v>42814.0</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="63">
         <f t="shared" si="1"/>
         <v>42814</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="66">
+      <c r="B31" s="65">
         <v>42854.0</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="63">
         <f t="shared" si="1"/>
         <v>42854</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="66">
+      <c r="B32" s="65">
         <v>42859.0</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="63">
         <f t="shared" si="1"/>
         <v>42859</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="66">
+      <c r="B33" s="65">
         <v>42860.0</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="63">
         <f t="shared" si="1"/>
         <v>42860</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="66">
+      <c r="B34" s="65">
         <v>42933.0</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="63">
         <f t="shared" si="1"/>
         <v>42933</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="66">
+      <c r="B35" s="65">
         <v>42958.0</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="63">
         <f t="shared" si="1"/>
         <v>42958</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="66">
+      <c r="B36" s="65">
         <v>42996.0</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="63">
         <f t="shared" si="1"/>
         <v>42996</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="66">
+      <c r="B37" s="65">
         <v>43017.0</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="63">
         <f t="shared" si="1"/>
         <v>43017</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="66">
+      <c r="B38" s="65">
         <v>43042.0</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="63">
         <f t="shared" si="1"/>
         <v>43042</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="66">
+      <c r="B39" s="65">
         <v>43062.0</v>
       </c>
-      <c r="C39" s="64">
+      <c r="C39" s="63">
         <f t="shared" si="1"/>
         <v>43062</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="66">
+      <c r="B40" s="65">
         <v>43092.0</v>
       </c>
-      <c r="C40" s="64">
+      <c r="C40" s="63">
         <f t="shared" si="1"/>
         <v>43092</v>
       </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="64" t="str">
+      <c r="B41" s="65"/>
+      <c r="C41" s="63" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="65"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="64" t="str">
+      <c r="A42" s="64"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="63" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="67"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="64" t="str">
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="63" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E43" s="69" t="str">
+      <c r="E43" s="68" t="str">
         <f>IF(WEEKDAY(D43,1)=1,D43+1,D43)</f>
         <v/>
       </c>
@@ -6538,8 +6535,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="27.71"/>
-    <col customWidth="1" min="2" max="2" width="27.0"/>
-    <col customWidth="1" min="3" max="5" width="13.57"/>
+    <col customWidth="1" min="2" max="3" width="20.29"/>
+    <col customWidth="1" min="4" max="5" width="13.57"/>
     <col customWidth="1" min="6" max="6" width="27.0"/>
   </cols>
   <sheetData>
@@ -6701,19 +6698,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="14">
         <f>B6*B5</f>
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="D6" s="16">
         <f>B5*E6</f>
-        <v>150000</v>
-      </c>
-      <c r="E6" s="14">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="15">
         <f t="shared" ref="E6:E9" si="1">B6*F6</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="17">
         <v>1.0</v>
@@ -6755,7 +6752,7 @@
         <f>B5*E7</f>
         <v>150000</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -6791,7 +6788,7 @@
       <c r="B8" s="13">
         <v>2.0</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <f>B8*B5</f>
         <v>100000</v>
       </c>
@@ -6799,7 +6796,7 @@
         <f>B5*E8</f>
         <v>100000</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6843,7 +6840,7 @@
         <f>B5*E9</f>
         <v>100000</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6874,10 +6871,10 @@
     </row>
     <row r="10">
       <c r="A10" s="11"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -6916,11 +6913,11 @@
         <f>B5*E11</f>
         <v>20000</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <f t="shared" ref="E11:E14" si="2">B11*F11</f>
         <v>0.4</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <v>10.0</v>
       </c>
       <c r="G11" s="2"/>
@@ -6952,7 +6949,7 @@
       <c r="B12" s="28">
         <v>2.0E-4</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="30">
         <f>B12*B5</f>
         <v>10</v>
       </c>
@@ -6960,7 +6957,7 @@
         <f>B5*E12</f>
         <v>10000</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="15">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
@@ -6994,19 +6991,19 @@
         <v>16</v>
       </c>
       <c r="B13" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="C13" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="32">
         <f>B13*B5</f>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="D13" s="16">
         <f>B5*E13</f>
-        <v>10000</v>
-      </c>
-      <c r="E13" s="14">
+        <v>25000</v>
+      </c>
+      <c r="E13" s="15">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="17">
         <v>5.0</v>
@@ -7048,7 +7045,7 @@
         <f>B5*E14</f>
         <v>40000</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="15">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
@@ -7078,13 +7075,13 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>0.5</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="38">
         <f>B5*E15*IF(F15="必要",B15)</f>
         <v>0</v>
@@ -7093,7 +7090,7 @@
         <f>SUM(E6:E14)*IF(F15="必要",B15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="40" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="2"/>
@@ -7119,15 +7116,15 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44">
         <f>SUM(E6:E15)</f>
-        <v>11.6</v>
+        <v>10.9</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="2"/>
@@ -7156,18 +7153,18 @@
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="45">
         <v>3.0</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="15">
         <f>E16*B17</f>
-        <v>34.8</v>
-      </c>
-      <c r="F17" s="48"/>
+        <v>32.7</v>
+      </c>
+      <c r="F17" s="47"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -7192,7 +7189,7 @@
     </row>
     <row r="18">
       <c r="A18" s="9"/>
-      <c r="B18" s="49"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -7221,13 +7218,13 @@
     </row>
     <row r="19">
       <c r="A19" s="9"/>
-      <c r="B19" s="49"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="50">
         <v>42767.0</v>
       </c>
       <c r="G19" s="2"/>
@@ -7258,77 +7255,77 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="52">
         <f>WORKDAY(F19,E17,$C$27:$C$43)</f>
-        <v>42816</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
+        <v>42811</v>
+      </c>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="56">
+      <c r="B22" s="55">
         <f>E16*B5</f>
-        <v>580000</v>
-      </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
+        <v>545000</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
     </row>
     <row r="23">
       <c r="A23" s="11"/>
-      <c r="B23" s="24"/>
+      <c r="B23" s="22"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
     </row>
     <row r="25">
       <c r="A25" s="11"/>
@@ -7340,221 +7337,221 @@
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="60" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="62">
         <v>42736.0</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="63">
         <f t="shared" ref="C27:C43" si="3">IF(WEEKDAY(B27,1)=1,B27+1,B27)</f>
         <v>42737</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="66">
+      <c r="B28" s="65">
         <v>42744.0</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="63">
         <f t="shared" si="3"/>
         <v>42744</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="66">
+      <c r="B29" s="65">
         <v>42777.0</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="63">
         <f t="shared" si="3"/>
         <v>42777</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="66">
+      <c r="B30" s="65">
         <v>42814.0</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="63">
         <f t="shared" si="3"/>
         <v>42814</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="66">
+      <c r="B31" s="65">
         <v>42854.0</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="63">
         <f t="shared" si="3"/>
         <v>42854</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="66">
+      <c r="B32" s="65">
         <v>42859.0</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="63">
         <f t="shared" si="3"/>
         <v>42859</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="66">
+      <c r="B33" s="65">
         <v>42860.0</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="63">
         <f t="shared" si="3"/>
         <v>42860</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="66">
+      <c r="B34" s="65">
         <v>42933.0</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="63">
         <f t="shared" si="3"/>
         <v>42933</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="66">
+      <c r="B35" s="65">
         <v>42958.0</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="63">
         <f t="shared" si="3"/>
         <v>42958</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="66">
+      <c r="B36" s="65">
         <v>42996.0</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="63">
         <f t="shared" si="3"/>
         <v>42996</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="66">
+      <c r="B37" s="65">
         <v>43017.0</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="63">
         <f t="shared" si="3"/>
         <v>43017</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="66">
+      <c r="B38" s="65">
         <v>43042.0</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="63">
         <f t="shared" si="3"/>
         <v>43042</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="66">
+      <c r="B39" s="65">
         <v>43062.0</v>
       </c>
-      <c r="C39" s="64">
+      <c r="C39" s="63">
         <f t="shared" si="3"/>
         <v>43062</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="66">
+      <c r="B40" s="65">
         <v>43092.0</v>
       </c>
-      <c r="C40" s="64">
+      <c r="C40" s="63">
         <f t="shared" si="3"/>
         <v>43092</v>
       </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="64" t="str">
+      <c r="B41" s="65"/>
+      <c r="C41" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="65"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="64" t="str">
+      <c r="A42" s="64"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="67"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="64" t="str">
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E43" s="69" t="str">
+      <c r="E43" s="68" t="str">
         <f>IF(WEEKDAY(D43,1)=1,D43+1,D43)</f>
         <v/>
       </c>
